--- a/data/trans_dic/P25_4-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25_4-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece enfermedad crónica del pulmón / enfisema / bronquitis crónica</t>
+          <t>Población que padece enfermedad crónica del pulmón / enfisema / bronquitis crónica (tasa de respuesta: 99,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>3,18%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>5,46%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,9%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>2,98%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,61%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3,68%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>2,85%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>3,74%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>3,78%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>3,27%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>4,95%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,71%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,89%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3,25%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>3,44%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>4,14%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>4,73%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,1; 6,8</t>
+          <t>3,16; 6,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,05</t>
+          <t>3,22; 7,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,82</t>
+          <t>1,73; 4,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,66; 7,17</t>
+          <t>1,84; 5,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,68</t>
+          <t>3,84; 7,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,61</t>
+          <t>3,2; 6,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,07</t>
+          <t>1,74; 4,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,11</t>
+          <t>1,98; 4,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,75; 4,95</t>
+          <t>2,59; 5,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 5,02</t>
+          <t>2,28; 5,98</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 4,44</t>
+          <t>1,93; 4,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 5,3</t>
+          <t>3,54; 6,82</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2,77; 4,87</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,85; 5,35</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2,44; 4,36</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>2,43; 5,09</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>3,23; 5,28</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>3,71; 5,92</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>2,54%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,49%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3,22%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,53%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3,83%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5,42%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
           <t>2,7%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>3,83%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>1,8%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>2,55%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>3,47%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>4,76%</t>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>3,72%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>2,86%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>4,75%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,78</t>
+          <t>0,62; 2,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,27</t>
+          <t>1,75; 4,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 6,71</t>
+          <t>2,56; 6,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 9,77</t>
+          <t>2,5; 6,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 5,03</t>
+          <t>3,06; 10,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,44</t>
+          <t>1,42; 6,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,24</t>
+          <t>1,2; 6,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 6,64</t>
+          <t>1,36; 5,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,2</t>
+          <t>1,6; 7,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,61</t>
+          <t>0,67; 3,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,42; 5,41</t>
+          <t>1,97; 6,72</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,04; 7,19</t>
+          <t>2,93; 8,86</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,15; 4,31</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1,88; 4,14</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>2,57; 5,98</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>1,78; 4,16</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>2,95; 7,51</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>2,69; 6,4</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>1,76%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>4,43%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>3,73%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4,29%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4,41%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>4,52%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>3,95%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>5,67%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>5,2%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,98%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>5,72%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>3,07%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 10,37</t>
+          <t>2,16; 12,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 10,11</t>
+          <t>1,54; 9,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,79; 13,08</t>
+          <t>3,6; 12,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>0,39; 4,9</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>1,84; 8,69</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 7,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,04; 8,51</t>
+          <t>2,39; 11,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>1,38; 7,14</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1,79; 8,2</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,5; 10,88</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>2,51; 7,95</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>2,07; 7,16</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>3,48; 8,88</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2,75; 8,81</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,22; 6,82</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3,47; 9,31</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1,28; 6,02</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>3,42%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>5,49%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,81%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3,54%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>3,07%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>3,07%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>3,32%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>3,63%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>5,06%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>3,22%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3,44%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>3,73%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>3,17%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>4,28%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>4,61%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,53</t>
+          <t>2,45; 4,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,85; 5,13</t>
+          <t>2,97; 5,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,48</t>
+          <t>2,97; 5,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,99; 7,27</t>
+          <t>2,44; 4,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 3,95</t>
+          <t>4,17; 7,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 3,91</t>
+          <t>3,04; 5,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,43; 4,45</t>
+          <t>2,03; 4,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,07</t>
+          <t>2,09; 3,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 3,81</t>
+          <t>2,6; 5,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 4,17</t>
+          <t>2,0; 4,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,96; 4,52</t>
+          <t>2,25; 4,15</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,44; 5,37</t>
+          <t>3,9; 6,59</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>2,47; 4,18</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>2,73; 4,37</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>2,97; 4,72</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 4,14</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>3,43; 5,46</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>3,79; 5,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece enfermedad crónica del pulmón / enfisema / bronquitis crónica (tasa de respuesta: 99,95%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>77544</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>80740</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>46965</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>52144</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>12513</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10267</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>50794</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>54436</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>65673</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>66429</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6765</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>11708</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>128338</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>135176</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>112638</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>118574</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>19277</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>21975</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>52160; 109368</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>52896; 130700</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>28478; 75010</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>30242; 89914</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8802; 17414</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7295; 14111</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>31294; 76839</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>36121; 82402</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>47021; 93473</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>41208; 108088</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4577; 9813</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8372; 16121</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>95626; 168442</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>99030; 185945</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>84685; 151193</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>83692; 175335</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>15065; 24598</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>17241; 27508</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>20020</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>40183</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>58112</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>58145</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4041</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2277</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>35318</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>34267</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>44543</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>21307</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2511</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3624</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>55338</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>74450</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>102656</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>79451</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>6552</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>5901</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8566; 40196</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>24099; 65699</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>35233; 91642</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>34573; 90969</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2214; 7720</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1038; 4447</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>16735; 89865</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>18756; 69254</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>22113; 107688</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>9296; 44710</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1293; 4405</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1962; 5929</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>31798; 119078</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>51706; 114126</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>70939; 164963</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>49517; 115412</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>4073; 10354</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>3769; 8965</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>21778</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17814</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>30043</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7441</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>21477</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15235</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>17666</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>18173</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>43255</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>33049</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>47709</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>25614</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9131; 51455</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6508; 39621</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15201; 53865</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1644; 20722</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9784; 46806</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5637; 29113</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7379; 33783</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6171; 44834</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>22852; 73341</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>18429; 56686</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>28995; 77739</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>10686; 50258</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>119342</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>138737</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>135120</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>117730</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>16554</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>12544</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>107589</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>103937</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>127882</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>105909</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>9276</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>15332</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>226931</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>242675</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>263003</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>223639</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>25830</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>27876</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>84646; 162135</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>102245; 190853</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>102413; 178358</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>84097; 171251</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12574; 21968</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>9142; 16606</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>73080; 164185</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>75520; 143371</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>93821; 183091</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>72273; 154750</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>6813; 12566</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>11826; 19983</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>174093; 294986</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>192485; 308346</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>209646; 333117</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>177298; 292407</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>20738; 33000</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>22929; 35351</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
